--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -462,7 +462,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -470,23 +470,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -494,10 +495,10 @@
   <cols>
     <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="33.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3283,273 +3284,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0D3350-B0BD-4F2B-82C3-BB0C4AC666AE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A47A662-C25D-430C-892A-8F422EC273CC}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B54BDB3C-12A1-402E-A324-E2A4A89AB647}"/>
 </file>
--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Atto notarile consenso</t>
   </si>
   <si>
@@ -104,6 +116,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -399,6 +414,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -487,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -499,6 +517,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,305 +539,353 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -840,2445 +907,2814 @@
       <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,76 +32,79 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -908,2813 +911,2813 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Atto notarile consenso</t>
@@ -71,6 +71,9 @@
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -419,7 +422,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -508,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -520,7 +523,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -663,13 +666,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -686,7 +689,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -709,7 +712,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -732,7 +735,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -755,13 +758,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -778,7 +781,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -801,7 +804,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -824,7 +827,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -847,7 +850,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -870,7 +873,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -892,2832 +895,2855 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>35</v>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1586,22 +1592,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>36</v>
@@ -1609,22 +1615,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>36</v>
@@ -1632,19 +1638,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,22 +1753,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>36</v>
@@ -1770,22 +1776,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>36</v>
@@ -1793,22 +1799,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>36</v>
@@ -1816,22 +1822,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>36</v>
@@ -1839,22 +1845,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,22 +1937,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>36</v>
@@ -1954,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>22</v>
@@ -2000,22 +2006,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>36</v>
@@ -2023,22 +2029,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>36</v>
@@ -2046,22 +2052,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>36</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2092,22 +2098,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>36</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,22 +2144,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>36</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2190,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2575,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2601,16 +2607,16 @@
         <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,7 +2630,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2633,7 +2639,7 @@
         <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,16 +2653,16 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2667,10 +2673,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2679,7 +2685,7 @@
         <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,16 +2742,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>106</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
@@ -2771,7 +2777,7 @@
         <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2788,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2857,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2903,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2920,10 +2926,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2932,7 +2938,7 @@
         <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,10 +2949,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2955,7 +2961,7 @@
         <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,10 +2972,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2978,7 +2984,7 @@
         <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2995,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3018,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3064,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3087,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3110,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3133,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,599 +3156,691 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -428,7 +428,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -529,7 +532,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3734,7 +3737,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3754,19 +3757,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3777,19 +3780,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>26</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3812,7 +3815,7 @@
         <v>34</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3835,7 +3838,7 @@
         <v>103</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3737,7 +3734,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3757,19 +3754,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3780,19 +3777,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>26</v>
@@ -3803,10 +3800,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3815,7 +3812,7 @@
         <v>34</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3826,10 +3823,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3838,7 +3835,7 @@
         <v>103</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3734,7 +3737,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3754,19 +3757,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3777,19 +3780,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>26</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3812,7 +3815,7 @@
         <v>34</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3835,7 +3838,7 @@
         <v>103</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -306,6 +306,36 @@
   </si>
   <si>
     <t>5,19</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -520,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -530,7 +560,7 @@
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2147,22 +2177,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>36</v>
@@ -2170,22 +2200,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>36</v>
@@ -2193,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,22 +2246,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>36</v>
@@ -2239,22 +2269,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>36</v>
@@ -2262,22 +2292,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>36</v>
@@ -2285,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2453,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,19 +2499,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2522,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2545,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2538,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2561,19 +2591,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2584,19 +2614,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2607,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2630,19 +2660,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2653,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2676,19 +2706,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2729,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2913,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,16 +3074,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>118</v>
@@ -3067,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3166,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,622 +3258,944 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E144" s="2" t="s">
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,6 +173,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -227,13 +233,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>36</v>
@@ -1671,22 +1677,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>36</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,22 +1815,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>36</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1861,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -1878,22 +1884,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1901,22 +1907,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
@@ -1924,22 +1930,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>36</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1976,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2016,22 +2022,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>36</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
@@ -2085,22 +2091,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>36</v>
@@ -2108,22 +2114,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>36</v>
@@ -2131,22 +2137,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>36</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,22 +2206,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>36</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>22</v>
@@ -2269,22 +2275,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>36</v>
@@ -2292,22 +2298,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>36</v>
@@ -2315,22 +2321,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>36</v>
@@ -2338,22 +2344,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>36</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,19 +2574,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2591,19 +2597,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2683,19 +2689,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2706,19 +2712,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,19 +2781,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2798,19 +2804,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2844,19 +2850,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2890,19 +2896,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2913,19 +2919,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,7 +2945,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2948,7 +2954,7 @@
         <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,16 +2968,16 @@
         <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,16 +2991,16 @@
         <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3005,10 +3011,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3017,7 +3023,7 @@
         <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,16 +3080,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>118</v>
@@ -3097,19 +3103,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3172,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3218,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3241,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3258,10 +3264,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3270,7 +3276,7 @@
         <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3287,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3310,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3356,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,10 +3379,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3385,7 +3391,7 @@
         <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3396,10 +3402,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3408,7 +3414,7 @@
         <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3425,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3442,19 +3448,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3471,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3517,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3563,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3580,622 +3586,737 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B158" s="2" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1677,22 +1683,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>36</v>
@@ -1700,22 +1706,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>36</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>36</v>
@@ -1884,22 +1890,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1907,22 +1913,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
@@ -1953,22 +1959,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>36</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2005,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>36</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>22</v>
@@ -2137,22 +2143,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>36</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>36</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>36</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2252,22 +2258,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>36</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>22</v>
@@ -2321,22 +2327,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>36</v>
@@ -2344,22 +2350,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>36</v>
@@ -2367,22 +2373,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>36</v>
@@ -2390,22 +2396,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>36</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2603,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2626,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2649,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2741,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2764,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2856,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2879,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2971,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3014,7 +3020,7 @@
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3023,7 +3029,7 @@
         <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3037,16 +3043,16 @@
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3060,16 +3066,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3080,10 +3086,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3092,7 +3098,7 @@
         <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,10 +3201,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -3207,7 +3213,7 @@
         <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,10 +3362,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3368,7 +3374,7 @@
         <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3385,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3431,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3454,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3471,10 +3477,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3483,7 +3489,7 @@
         <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,10 +3500,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3506,7 +3512,7 @@
         <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3523,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3569,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3592,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3615,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3638,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3678,645 +3684,737 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B163" s="2" t="s">
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -562,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1706,22 +1712,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>36</v>
@@ -1729,22 +1735,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>36</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1827,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1913,22 +1919,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
@@ -1936,22 +1942,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>36</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
@@ -1982,22 +1988,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>36</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>36</v>
@@ -2051,22 +2057,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>36</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>22</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>22</v>
@@ -2189,22 +2195,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>36</v>
@@ -2212,22 +2218,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>36</v>
@@ -2235,22 +2241,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>36</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,22 +2310,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>36</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>22</v>
@@ -2373,22 +2379,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>36</v>
@@ -2396,22 +2402,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>36</v>
@@ -2419,22 +2425,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>36</v>
@@ -2442,22 +2448,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>36</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,19 +2586,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2695,19 +2701,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2718,19 +2724,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2810,19 +2816,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2833,19 +2839,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2856,19 +2862,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2925,19 +2931,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2948,19 +2954,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2994,19 +3000,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3040,19 +3046,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3089,7 +3095,7 @@
         <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3098,7 +3104,7 @@
         <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3112,16 +3118,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3135,16 +3141,16 @@
         <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3155,10 +3161,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3167,7 +3173,7 @@
         <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3253,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3270,10 +3276,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
@@ -3282,7 +3288,7 @@
         <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3391,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3408,19 +3414,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3431,10 +3437,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3443,7 +3449,7 @@
         <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3454,19 +3460,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3477,19 +3483,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3500,19 +3506,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3523,19 +3529,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3546,10 +3552,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3558,7 +3564,7 @@
         <v>117</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3569,10 +3575,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3581,7 +3587,7 @@
         <v>117</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3592,19 +3598,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3621,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3638,19 +3644,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3684,19 +3690,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3707,19 +3713,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3730,19 +3736,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3753,668 +3759,760 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G163" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B167" s="2" t="s">
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E167" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -4110,7 +4110,7 @@
         <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>152</v>
@@ -4133,7 +4133,7 @@
         <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>152</v>
@@ -4142,7 +4142,7 @@
         <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>154</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_041.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="170">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -568,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1735,22 +1747,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>36</v>
@@ -1758,19 +1770,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1781,22 +1793,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>36</v>
@@ -1804,19 +1816,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1839,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1862,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1885,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1896,22 +1908,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -1919,22 +1931,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
@@ -1942,19 +1954,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1965,22 +1977,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>36</v>
@@ -1988,22 +2000,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>36</v>
@@ -2011,22 +2023,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>36</v>
@@ -2034,19 +2046,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2069,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>22</v>
@@ -2080,19 +2092,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
@@ -2103,19 +2115,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2126,22 +2138,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>36</v>
@@ -2149,22 +2161,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>36</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>22</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2230,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>22</v>
@@ -2241,22 +2253,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>36</v>
@@ -2264,22 +2276,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>36</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2310,22 +2322,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>36</v>
@@ -2333,22 +2345,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>36</v>
@@ -2356,22 +2368,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>36</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2402,22 +2414,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>36</v>
@@ -2425,22 +2437,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>36</v>
@@ -2448,22 +2460,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>36</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2494,22 +2506,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>36</v>
@@ -2517,22 +2529,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>36</v>
@@ -2540,22 +2552,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>36</v>
@@ -2563,19 +2575,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2598,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2644,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2667,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2690,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2713,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2736,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2759,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2782,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2805,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2828,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2874,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2897,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2920,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2943,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3012,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3035,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3058,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3081,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3104,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3127,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3150,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3161,19 +3173,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3184,19 +3196,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3207,10 +3219,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3219,7 +3231,7 @@
         <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3230,10 +3242,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3242,7 +3254,7 @@
         <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3265,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3288,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3311,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3334,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3357,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3368,19 +3380,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3391,19 +3403,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3426,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3449,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3472,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3495,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3506,19 +3518,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3529,19 +3541,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3552,19 +3564,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3575,19 +3587,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3598,19 +3610,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3621,19 +3633,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3644,7 +3656,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>133</v>
@@ -3653,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>134</v>
@@ -3667,19 +3679,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3690,19 +3702,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3713,19 +3725,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3736,19 +3748,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3759,19 +3771,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3782,19 +3794,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3805,19 +3817,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3828,691 +3840,875 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="E171" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
+      <c r="F177" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>36</v>
       </c>
     </row>
